--- a/document/多线程.xlsx
+++ b/document/多线程.xlsx
@@ -3,20 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622E0D90-EAF8-43B4-A970-A95D2EA1B5B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5B532B-42E4-4FEE-8591-64CE9886F856}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JVM存储位置分配" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>－１２８－１２７</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -141,6 +156,10 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>（栈内存）</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -293,7 +312,11 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>（堆内存）</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -567,7 +590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -575,4 +600,144 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16684DF5-30CE-48D5-8FCD-7B204001C862}">
+  <dimension ref="A2:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>-127</f>
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>-128</f>
+        <v>-128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>